--- a/Excel_report/گزارش سفاله.xlsx
+++ b/Excel_report/گزارش سفاله.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Data Base\Zobaliazh\debt_collection\Chips_Report\Excel_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Data Base\Zobaliazh\وصول مطالبات\Chips_Report\Excel_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4182B-6DA9-4D33-B276-C66A9AEA975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BE2C4-C3F4-4D7C-BBA7-2ABC35E492F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,14 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,13 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -168,7 +161,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -242,9 +235,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{724CD7AF-9CE1-434D-A899-006C377D9B85}" name="Table1" displayName="Table1" ref="A2:H4" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="A2:H3" xr:uid="{724CD7AF-9CE1-434D-A899-006C377D9B85}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{2C4C7E5E-AFF4-46EC-8E37-40417B693399}" name="ردیف" totalsRowLabel="جمع کل" dataDxfId="13" totalsRowDxfId="6">
-      <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2C4C7E5E-AFF4-46EC-8E37-40417B693399}" name="ردیف" totalsRowLabel="جمع کل" dataDxfId="13" totalsRowDxfId="6"/>
     <tableColumn id="1" xr3:uid="{E264141D-B89B-4013-898F-34292B4CD338}" name="مشتری"/>
     <tableColumn id="2" xr3:uid="{4D8A4E36-C04A-47BF-8B95-BE7B7FF0B9DE}" name="سفارش تسویه نشده_x000a_(کیلوگرم)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
     <tableColumn id="3" xr3:uid="{FB467FF7-95E1-4865-A65F-C5486D90F73E}" name="بازه تسویه نشده_x000a_(روز)" dataDxfId="11" totalsRowDxfId="4"/>
@@ -548,95 +539,94 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B53"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.1796875" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5">
         <f ca="1">NOW()</f>
-        <v>45465.716179745374</v>
+        <v>45474.489517939815</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <f t="shared" ref="A3" si="0">ROW(A1)</f>
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>15906</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>8</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>1529</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <f>SUBTOTAL(109,Table1[سفارش تسویه نشده
 (کیلوگرم)])</f>
         <v>15906</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <f>SUBTOTAL(109,Table1[سفارش سررسید شده
 (کیلوگرم)])</f>
         <v>1529</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
